--- a/app/data/templates/balance_sheet.xlsx
+++ b/app/data/templates/balance_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synth\Desktop\参謀くん_works\参謀くんフォルダ\02.出力フォルダ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synth\Desktop\works_env\21.Work_Streamlit\Sanbou_app\app\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6FF6C0-2867-4BB5-B363-45AD0BD0C2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81217D32-B018-4ED4-9B65-CE7F819C89DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="6" activeTab="6" xr2:uid="{462F3A88-FEB7-400E-9EA0-B3B61041DD07}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/app/data/templates/balance_sheet.xlsx
+++ b/app/data/templates/balance_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synth\Desktop\works_env\21.Work_Streamlit\Sanbou_app\app\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81217D32-B018-4ED4-9B65-CE7F819C89DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F8041-18FF-4B74-82CE-ECFCA851602C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="6" activeTab="6" xr2:uid="{462F3A88-FEB7-400E-9EA0-B3B61041DD07}"/>
   </bookViews>
@@ -348,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -373,9 +373,6 @@
     <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,27 +382,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -441,6 +423,21 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -802,112 +799,112 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="29"/>
+      <c r="A4" s="23"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="30"/>
+      <c r="A5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="30"/>
+      <c r="A6" s="24"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="30"/>
+      <c r="A7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="30"/>
+      <c r="A8" s="24"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="30"/>
+      <c r="A9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="30"/>
+      <c r="A10" s="24"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
+      <c r="A11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="30"/>
+      <c r="A12" s="24"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="30"/>
+      <c r="A13" s="24"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="30"/>
+      <c r="A14" s="24"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="30"/>
+      <c r="A15" s="24"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="30"/>
+      <c r="A16" s="24"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
+      <c r="A17" s="24"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30"/>
+      <c r="A18" s="24"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" s="30"/>
+      <c r="A19" s="24"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="30"/>
+      <c r="A20" s="24"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="30"/>
+      <c r="A21" s="24"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="30"/>
+      <c r="A22" s="24"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="30"/>
+      <c r="A23" s="24"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="30"/>
+      <c r="A24" s="24"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="30"/>
+      <c r="A25" s="24"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="30"/>
+      <c r="A26" s="24"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A27" s="30"/>
+      <c r="A27" s="24"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="30"/>
+      <c r="A28" s="24"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A29" s="30"/>
+      <c r="A29" s="24"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="30"/>
+      <c r="A30" s="24"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A31" s="30"/>
+      <c r="A31" s="24"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A32" s="30"/>
+      <c r="A32" s="24"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" s="30"/>
+      <c r="A33" s="24"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" s="30"/>
+      <c r="A34" s="24"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A35" s="30"/>
+      <c r="A35" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -930,125 +927,125 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" s="30"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="30"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="30"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="30"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="30"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="30"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="30"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="30"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="30"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="30"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="30"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="20"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="30"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="30"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="20"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="30"/>
-      <c r="C17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="20"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="30"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="30"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="30"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="30"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="30"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="30"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="30"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="30"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="30"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="30"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="30"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B29" s="30"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="30"/>
+      <c r="B30" s="24"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B31" s="30"/>
+      <c r="B31" s="24"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B32" s="30"/>
+      <c r="B32" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1072,97 +1069,97 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C2" s="30"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C3" s="30"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C4" s="30"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C5" s="30"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C6" s="30"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C7" s="30"/>
+      <c r="C7" s="24"/>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C8" s="30"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C9" s="30"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C10" s="30"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C11" s="30"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C12" s="30"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C13" s="30"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C14" s="30"/>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C15" s="30"/>
+      <c r="C15" s="24"/>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C16" s="30"/>
+      <c r="C16" s="24"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C17" s="30"/>
+      <c r="C17" s="24"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C18" s="30"/>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C19" s="30"/>
+      <c r="C19" s="24"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C20" s="30"/>
+      <c r="C20" s="24"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C21" s="30"/>
+      <c r="C21" s="24"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C22" s="30"/>
+      <c r="C22" s="24"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C23" s="30"/>
+      <c r="C23" s="24"/>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C24" s="30"/>
+      <c r="C24" s="24"/>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C25" s="30"/>
+      <c r="C25" s="24"/>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C26" s="30"/>
+      <c r="C26" s="24"/>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C27" s="30"/>
+      <c r="C27" s="24"/>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C28" s="30"/>
+      <c r="C28" s="24"/>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C29" s="30"/>
+      <c r="C29" s="24"/>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C30" s="30"/>
+      <c r="C30" s="24"/>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C31" s="30"/>
+      <c r="C31" s="24"/>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C32" s="30"/>
+      <c r="C32" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1185,122 +1182,122 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C3" s="30"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C4" s="30"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C5" s="30"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C6" s="30"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C7" s="30"/>
+      <c r="C7" s="24"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C8" s="30"/>
-      <c r="E8" s="26"/>
+      <c r="C8" s="24"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C9" s="30"/>
-      <c r="E9" s="26"/>
+      <c r="C9" s="24"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C10" s="30"/>
-      <c r="E10" s="26"/>
+      <c r="C10" s="24"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C11" s="30"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="24"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C12" s="30"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C13" s="30"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="24"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C14" s="30"/>
-      <c r="E14" s="26"/>
+      <c r="C14" s="24"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C15" s="30"/>
-      <c r="E15" s="26"/>
+      <c r="C15" s="24"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C16" s="30"/>
-      <c r="E16" s="26"/>
+      <c r="C16" s="24"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C17" s="30"/>
-      <c r="E17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C18" s="30"/>
-      <c r="E18" s="26"/>
+      <c r="C18" s="24"/>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C19" s="30"/>
-      <c r="E19" s="26"/>
+      <c r="C19" s="24"/>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C20" s="30"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="24"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C21" s="30"/>
-      <c r="E21" s="26"/>
+      <c r="C21" s="24"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C22" s="30"/>
-      <c r="E22" s="26"/>
+      <c r="C22" s="24"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C23" s="30"/>
-      <c r="E23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C24" s="30"/>
-      <c r="E24" s="26"/>
+      <c r="C24" s="24"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C25" s="30"/>
-      <c r="E25" s="26"/>
+      <c r="C25" s="24"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C26" s="30"/>
-      <c r="E26" s="26"/>
+      <c r="C26" s="24"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C27" s="30"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="24"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C28" s="30"/>
-      <c r="E28" s="26"/>
+      <c r="C28" s="24"/>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C29" s="30"/>
-      <c r="E29" s="26"/>
+      <c r="C29" s="24"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C30" s="30"/>
-      <c r="E30" s="26"/>
+      <c r="C30" s="24"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C31" s="30"/>
-      <c r="E31" s="26"/>
+      <c r="C31" s="24"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C32" s="30"/>
-      <c r="E32" s="26"/>
+      <c r="C32" s="24"/>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C33" s="30"/>
+      <c r="C33" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1324,97 +1321,97 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" s="30"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" s="30"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B5" s="30"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" s="30"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
+      <c r="B7" s="24"/>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8" s="30"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B9" s="30"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B10" s="30"/>
+      <c r="B10" s="24"/>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B11" s="30"/>
+      <c r="B11" s="24"/>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B12" s="30"/>
+      <c r="B12" s="24"/>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B13" s="30"/>
+      <c r="B13" s="24"/>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
+      <c r="B14" s="24"/>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B15" s="30"/>
+      <c r="B15" s="24"/>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B16" s="30"/>
+      <c r="B16" s="24"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="30"/>
+      <c r="B17" s="24"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="30"/>
+      <c r="B18" s="24"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="30"/>
+      <c r="B19" s="24"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="30"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="30"/>
+      <c r="B21" s="24"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="30"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="30"/>
+      <c r="B23" s="24"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="30"/>
+      <c r="B24" s="24"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="30"/>
+      <c r="B25" s="24"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="30"/>
+      <c r="B26" s="24"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B27" s="30"/>
+      <c r="B27" s="24"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="30"/>
+      <c r="B28" s="24"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="30"/>
+      <c r="B29" s="24"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B30" s="30"/>
+      <c r="B30" s="24"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B31" s="30"/>
+      <c r="B31" s="24"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B32" s="30"/>
+      <c r="B32" s="24"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B33" s="30"/>
+      <c r="B33" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1437,88 +1434,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="30"/>
+      <c r="B2" s="24"/>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" s="30"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" s="30"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B5" s="30"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B6" s="30"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
+      <c r="B7" s="24"/>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B8" s="30"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B9" s="30"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B10" s="30"/>
+      <c r="B10" s="24"/>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B11" s="30"/>
+      <c r="B11" s="24"/>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B12" s="30"/>
+      <c r="B12" s="24"/>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B13" s="30"/>
+      <c r="B13" s="24"/>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
+      <c r="B14" s="24"/>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B15" s="30"/>
+      <c r="B15" s="24"/>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B16" s="30"/>
+      <c r="B16" s="24"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B17" s="30"/>
+      <c r="B17" s="24"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B18" s="30"/>
+      <c r="B18" s="24"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B19" s="30"/>
+      <c r="B19" s="24"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B20" s="30"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B21" s="30"/>
+      <c r="B21" s="24"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B22" s="30"/>
+      <c r="B22" s="24"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B23" s="30"/>
+      <c r="B23" s="24"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B24" s="30"/>
+      <c r="B24" s="24"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B25" s="30"/>
+      <c r="B25" s="24"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" s="30"/>
+      <c r="B26" s="24"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B27" s="30"/>
+      <c r="B27" s="24"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B28" s="30"/>
+      <c r="B28" s="24"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B29" s="30"/>
+      <c r="B29" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -1532,7 +1529,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1576,148 +1573,148 @@
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <f>SUM(B7:B8)-B9</f>
         <v>0</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>E7-E8</f>
         <v>0</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="29">
         <f>B12-E12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.4">
-      <c r="A14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="20"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
+      <c r="A15" s="14"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="21"/>
-      <c r="H16" s="23"/>
+      <c r="D16" s="15"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="20" spans="1:1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A20" s="20"/>
+      <c r="A20" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
